--- a/TPs/TP1/TABLA200/AG_TP1_Torneo_c_Elitismo.xlsx
+++ b/TPs/TP1/TABLA200/AG_TP1_Torneo_c_Elitismo.xlsx
@@ -402,13 +402,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9779612327434009</v>
+        <v>0.8720032942357427</v>
       </c>
       <c r="C2">
-        <v>0.03822052660793266</v>
+        <v>0.0006626148426962966</v>
       </c>
       <c r="D2">
-        <v>0.3172639658794763</v>
+        <v>0.3451566118068129</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -416,13 +416,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9823440121487607</v>
+        <v>0.8789035851461615</v>
       </c>
       <c r="C3">
-        <v>0.3064753665135632</v>
+        <v>0.3633153723179775</v>
       </c>
       <c r="D3">
-        <v>0.5151302744956341</v>
+        <v>0.6264434614410976</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -430,13 +430,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9823440712248735</v>
+        <v>0.8789035851461615</v>
       </c>
       <c r="C4">
-        <v>0.4614358910847255</v>
+        <v>0.3668557316310704</v>
       </c>
       <c r="D4">
-        <v>0.8428290534330038</v>
+        <v>0.7837709542842891</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -444,13 +444,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9842807718629566</v>
+        <v>0.8789035851461615</v>
       </c>
       <c r="C5">
-        <v>0.5492777102314391</v>
+        <v>0.8720049761965527</v>
       </c>
       <c r="D5">
-        <v>0.9387863629851161</v>
+        <v>0.8775192879513265</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -458,13 +458,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9843110710431938</v>
+        <v>0.8789035851461615</v>
       </c>
       <c r="C6">
-        <v>0.9823440121487607</v>
+        <v>0.8498508951585958</v>
       </c>
       <c r="D6">
-        <v>0.9833182744244841</v>
+        <v>0.875998316147405</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -472,13 +472,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9843129633714593</v>
+        <v>0.878903808663255</v>
       </c>
       <c r="C7">
-        <v>0.9823440712248735</v>
+        <v>0.8789035851461615</v>
       </c>
       <c r="D7">
-        <v>0.9841047136222374</v>
+        <v>0.8789036074978709</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -486,13 +486,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9843129633714593</v>
+        <v>0.878903808663255</v>
       </c>
       <c r="C8">
-        <v>0.9823742815048476</v>
+        <v>0.8212864864219395</v>
       </c>
       <c r="D8">
-        <v>0.9841177705550124</v>
+        <v>0.8729589325049678</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -500,13 +500,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9844340761639565</v>
+        <v>0.878903808663255</v>
       </c>
       <c r="C9">
-        <v>0.9843110710431938</v>
+        <v>0.8789035851461615</v>
       </c>
       <c r="D9">
-        <v>0.984324317719403</v>
+        <v>0.8789037639598363</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -514,13 +514,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9844340761639565</v>
+        <v>0.878903808663255</v>
       </c>
       <c r="C10">
-        <v>0.8643170119568775</v>
+        <v>0.878903808663255</v>
       </c>
       <c r="D10">
-        <v>0.9723678688934927</v>
+        <v>0.878903808663255</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -528,13 +528,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.9844340761639565</v>
+        <v>0.878903808663255</v>
       </c>
       <c r="C11">
-        <v>0.2421274077607602</v>
+        <v>0.878903808663255</v>
       </c>
       <c r="D11">
-        <v>0.5624011183030275</v>
+        <v>0.878903808663255</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -542,13 +542,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.9844359686104565</v>
+        <v>0.878903808663255</v>
       </c>
       <c r="C12">
-        <v>0.2421274150930917</v>
+        <v>0.878903808663255</v>
       </c>
       <c r="D12">
-        <v>0.8472520982642235</v>
+        <v>0.878903808663255</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -556,13 +556,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.9844359686104565</v>
+        <v>0.878903808663255</v>
       </c>
       <c r="C13">
-        <v>0.8643169842500605</v>
+        <v>0.8788465892150106</v>
       </c>
       <c r="D13">
-        <v>0.9604110390411591</v>
+        <v>0.8788980867184305</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -570,13 +570,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.9844340761639565</v>
+        <v>0.878903808663255</v>
       </c>
       <c r="C14">
-        <v>0.8643188406077797</v>
+        <v>0.878903808663255</v>
       </c>
       <c r="D14">
-        <v>0.9483989377636993</v>
+        <v>0.878903808663255</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -584,13 +584,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.9844340761639565</v>
+        <v>0.878903808663255</v>
       </c>
       <c r="C15">
-        <v>0.9805621622920306</v>
+        <v>0.878903808663255</v>
       </c>
       <c r="D15">
-        <v>0.9840347498419458</v>
+        <v>0.878903808663255</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -598,13 +598,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9844340761639565</v>
+        <v>0.878903808663255</v>
       </c>
       <c r="C16">
-        <v>0.9844189366574407</v>
+        <v>0.878903808663255</v>
       </c>
       <c r="D16">
-        <v>0.9844310482626535</v>
+        <v>0.878903808663255</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -612,13 +612,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9999980255971146</v>
+        <v>0.878903808663255</v>
       </c>
       <c r="C17">
-        <v>0.9766978778146503</v>
+        <v>0.8643164266504633</v>
       </c>
       <c r="D17">
-        <v>0.9852047396234738</v>
+        <v>0.8774450704619758</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -626,13 +626,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.9999980255971146</v>
+        <v>0.878903808663255</v>
       </c>
       <c r="C18">
-        <v>0.9844340761639565</v>
+        <v>0.8715948588677682</v>
       </c>
       <c r="D18">
-        <v>0.9937723862192678</v>
+        <v>0.8774419963524484</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -640,13 +640,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.9999980330476879</v>
+        <v>0.878903808663255</v>
       </c>
       <c r="C19">
-        <v>0.9980457371049893</v>
+        <v>0.878903808663255</v>
       </c>
       <c r="D19">
-        <v>0.9998027743961831</v>
+        <v>0.878903808663255</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -654,13 +654,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9999980330476879</v>
+        <v>0.878903808663255</v>
       </c>
       <c r="C20">
-        <v>0.5624956634212008</v>
+        <v>0.8788966561303611</v>
       </c>
       <c r="D20">
-        <v>0.9562474004599624</v>
+        <v>0.8789030934099656</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -668,13 +668,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.9999980330476879</v>
+        <v>0.878903808663255</v>
       </c>
       <c r="C21">
-        <v>0.9689922043776839</v>
+        <v>0.878903808663255</v>
       </c>
       <c r="D21">
-        <v>0.9968912990805283</v>
+        <v>0.878903808663255</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -682,13 +682,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.9999980330476879</v>
+        <v>0.878903808663255</v>
       </c>
       <c r="C22">
-        <v>0.5624985244367622</v>
+        <v>0.878903808663255</v>
       </c>
       <c r="D22">
-        <v>0.9093971669895143</v>
+        <v>0.878903808663255</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -696,13 +696,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.9999980330476879</v>
+        <v>0.878903808663255</v>
       </c>
       <c r="C23">
-        <v>0.9384746569585892</v>
+        <v>0.878903808663255</v>
       </c>
       <c r="D23">
-        <v>0.9938440980416955</v>
+        <v>0.878903808663255</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -710,13 +710,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9999980330476879</v>
+        <v>0.878903808663255</v>
       </c>
       <c r="C24">
-        <v>0.7656232787131212</v>
+        <v>0.8789029145950517</v>
       </c>
       <c r="D24">
-        <v>0.92968522527833</v>
+        <v>0.8789037192564347</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -724,13 +724,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9999980330476879</v>
+        <v>0.878903808663255</v>
       </c>
       <c r="C25">
-        <v>0.9998759665804178</v>
+        <v>0.8715948588677682</v>
       </c>
       <c r="D25">
-        <v>0.9999854449319731</v>
+        <v>0.8781729136837063</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -738,13 +738,13 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.9999980330476879</v>
+        <v>0.878903808663255</v>
       </c>
       <c r="C26">
-        <v>0.9999980330476879</v>
+        <v>0.8784461052313638</v>
       </c>
       <c r="D26">
-        <v>0.9999980330476881</v>
+        <v>0.8788580383200658</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -752,13 +752,13 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.9999980330476879</v>
+        <v>0.878903808663255</v>
       </c>
       <c r="C27">
-        <v>0.9999827743318255</v>
+        <v>0.6601541339858724</v>
       </c>
       <c r="D27">
-        <v>0.9999965071761018</v>
+        <v>0.8570288411955167</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -766,13 +766,13 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.9999980330476879</v>
+        <v>0.878903808663255</v>
       </c>
       <c r="C28">
-        <v>0.8789044058731286</v>
+        <v>0.878903808663255</v>
       </c>
       <c r="D28">
-        <v>0.9817347114824093</v>
+        <v>0.878903808663255</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -780,13 +780,13 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.9999980330476879</v>
+        <v>0.878903808663255</v>
       </c>
       <c r="C29">
-        <v>0.9998754897728888</v>
+        <v>0.1914051103029707</v>
       </c>
       <c r="D29">
-        <v>0.9999857310365445</v>
+        <v>0.8101539388272266</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -794,13 +794,13 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.9999980330476879</v>
+        <v>0.878903808663255</v>
       </c>
       <c r="C30">
-        <v>0.9922007995129141</v>
+        <v>0.878903808663255</v>
       </c>
       <c r="D30">
-        <v>0.9992179282252227</v>
+        <v>0.878903808663255</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -808,13 +808,13 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.9999980330476879</v>
+        <v>0.878903808663255</v>
       </c>
       <c r="C31">
-        <v>0.9999980330476879</v>
+        <v>0.878903808663255</v>
       </c>
       <c r="D31">
-        <v>0.9999980330476881</v>
+        <v>0.878903808663255</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -822,13 +822,13 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.9999980330476879</v>
+        <v>0.878903808663255</v>
       </c>
       <c r="C32">
-        <v>0.9999980330476879</v>
+        <v>0.878903808663255</v>
       </c>
       <c r="D32">
-        <v>0.9999980330476881</v>
+        <v>0.878903808663255</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -836,13 +836,13 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.9999980330476879</v>
+        <v>0.878903808663255</v>
       </c>
       <c r="C33">
-        <v>0.9999980330476879</v>
+        <v>0.8752455190682389</v>
       </c>
       <c r="D33">
-        <v>0.9999980330476881</v>
+        <v>0.8785379797037534</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -850,13 +850,13 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.9999980330476879</v>
+        <v>0.878903808663255</v>
       </c>
       <c r="C34">
-        <v>0.5624956634212008</v>
+        <v>0.878903808663255</v>
       </c>
       <c r="D34">
-        <v>0.9561253697554651</v>
+        <v>0.878903808663255</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -864,13 +864,13 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.9999980330476879</v>
+        <v>0.878905596801026</v>
       </c>
       <c r="C35">
-        <v>0.9844340835563221</v>
+        <v>0.8752455190682389</v>
       </c>
       <c r="D35">
-        <v>0.9980512042172218</v>
+        <v>0.8785381585175305</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -878,13 +878,13 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.9999980330476879</v>
+        <v>0.878905596801026</v>
       </c>
       <c r="C36">
-        <v>0.2499990160586671</v>
+        <v>0.878903808663255</v>
       </c>
       <c r="D36">
-        <v>0.9249493092322261</v>
+        <v>0.8789043898080136</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -892,13 +892,13 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.9999980330476879</v>
+        <v>0.878905596801026</v>
       </c>
       <c r="C37">
-        <v>0.9999980255971146</v>
+        <v>0.8784461052313638</v>
       </c>
       <c r="D37">
-        <v>0.9999980323026307</v>
+        <v>0.8788589770925604</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -906,13 +906,13 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.9999980330476879</v>
+        <v>0.878905624740693</v>
       </c>
       <c r="C38">
-        <v>0.9960956015830282</v>
+        <v>0.878905596801026</v>
       </c>
       <c r="D38">
-        <v>0.9996077895286934</v>
+        <v>0.8789055995949926</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -920,13 +920,13 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.9999980330476879</v>
+        <v>0.878905624740693</v>
       </c>
       <c r="C39">
-        <v>0.9922007995129141</v>
+        <v>0.878905596801026</v>
       </c>
       <c r="D39">
-        <v>0.9992183096942107</v>
+        <v>0.8789056079768928</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -934,13 +934,13 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.9999980330476879</v>
+        <v>0.878905624740693</v>
       </c>
       <c r="C40">
-        <v>0.9844340835563221</v>
+        <v>0.878905596801026</v>
       </c>
       <c r="D40">
-        <v>0.9976611518056195</v>
+        <v>0.8789056191527596</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -948,13 +948,13 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.9999980330476879</v>
+        <v>0.878905624740693</v>
       </c>
       <c r="C41">
-        <v>0.7656232787131212</v>
+        <v>0.878905624740693</v>
       </c>
       <c r="D41">
-        <v>0.9761702667841021</v>
+        <v>0.8789056247406929</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -962,13 +962,13 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.9999980926522749</v>
+        <v>0.878905624740693</v>
       </c>
       <c r="C42">
-        <v>0.5624985244367622</v>
+        <v>0.6601557079194406</v>
       </c>
       <c r="D42">
-        <v>0.9561474041033329</v>
+        <v>0.8351556413764424</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -976,13 +976,13 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.9999980926522749</v>
+        <v>0.8789056317256099</v>
       </c>
       <c r="C43">
-        <v>0.999997556211055</v>
+        <v>0.1914059578049294</v>
       </c>
       <c r="D43">
-        <v>0.9999979853640252</v>
+        <v>0.8101556587456082</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -990,13 +990,13 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.9999980926522749</v>
+        <v>0.999999333173147</v>
       </c>
       <c r="C44">
-        <v>0.9999370584854983</v>
+        <v>0.878905624740693</v>
       </c>
       <c r="D44">
-        <v>0.9999917210150044</v>
+        <v>0.8910149969809217</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1004,13 +1004,13 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.9999980926522749</v>
+        <v>0.9999993406237252</v>
       </c>
       <c r="C45">
-        <v>0.9999980181465414</v>
+        <v>0.878905624740693</v>
       </c>
       <c r="D45">
-        <v>0.9999980673203254</v>
+        <v>0.8910149998214546</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1018,13 +1018,13 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.9999980926522749</v>
+        <v>0.9999993406237252</v>
       </c>
       <c r="C46">
-        <v>0.9999980926522749</v>
+        <v>0.8789056317256099</v>
       </c>
       <c r="D46">
-        <v>0.9999980926522749</v>
+        <v>0.9273431152848561</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1032,13 +1032,13 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.9999980926522749</v>
+        <v>0.9999993406237252</v>
       </c>
       <c r="C47">
-        <v>0.9999980926522749</v>
+        <v>0.8789056317256099</v>
       </c>
       <c r="D47">
-        <v>0.9999980926522749</v>
+        <v>0.9757805988441023</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1046,13 +1046,13 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.9999980926522749</v>
+        <v>0.9999994002283512</v>
       </c>
       <c r="C48">
-        <v>0.9999828339359578</v>
+        <v>0.9689934915228321</v>
       </c>
       <c r="D48">
-        <v>0.9999950349485529</v>
+        <v>0.9968987616740985</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1060,13 +1060,13 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.9999980926522749</v>
+        <v>0.9999994002283512</v>
       </c>
       <c r="C49">
-        <v>0.9998760261813668</v>
+        <v>0.9999993406237252</v>
       </c>
       <c r="D49">
-        <v>0.9999858852601268</v>
+        <v>0.9999993525446504</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1074,13 +1074,13 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.9999980926522749</v>
+        <v>0.9999998770654237</v>
       </c>
       <c r="C50">
-        <v>0.9999980926522749</v>
+        <v>0.9844354400558797</v>
       </c>
       <c r="D50">
-        <v>0.9999980926522749</v>
+        <v>0.9984430340134235</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1088,13 +1088,13 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.9999980926522749</v>
+        <v>0.9999998770654237</v>
       </c>
       <c r="C51">
-        <v>0.9997539671610394</v>
+        <v>0.9999994002283512</v>
       </c>
       <c r="D51">
-        <v>0.9999736324194867</v>
+        <v>0.9999995909631801</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1102,13 +1102,13 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.9999980926522749</v>
+        <v>0.9999998770654237</v>
       </c>
       <c r="C52">
-        <v>0.9960956610712</v>
+        <v>0.9999994002283512</v>
       </c>
       <c r="D52">
-        <v>0.9996077898895827</v>
+        <v>0.9999997809529511</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1116,13 +1116,13 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.9999980926522749</v>
+        <v>0.9999998770654237</v>
       </c>
       <c r="C53">
-        <v>0.9998760261813668</v>
+        <v>0.9999998770654237</v>
       </c>
       <c r="D53">
-        <v>0.9999851230679131</v>
+        <v>0.9999998770654237</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1130,13 +1130,13 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.9999980926522749</v>
+        <v>0.9999998770654237</v>
       </c>
       <c r="C54">
-        <v>0.562498569140188</v>
+        <v>0.9999998770654237</v>
       </c>
       <c r="D54">
-        <v>0.8671796339558554</v>
+        <v>0.9999998770654237</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1144,13 +1144,13 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.9999980926522749</v>
+        <v>0.9999998770654237</v>
       </c>
       <c r="C55">
-        <v>0.562498569140188</v>
+        <v>0.9999998770654237</v>
       </c>
       <c r="D55">
-        <v>0.9561871115359606</v>
+        <v>0.9999998770654237</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1158,13 +1158,13 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.9999980926522749</v>
+        <v>0.9999998770654237</v>
       </c>
       <c r="C56">
-        <v>0.999998077751128</v>
+        <v>0.9999998770654237</v>
       </c>
       <c r="D56">
-        <v>0.9999980911621602</v>
+        <v>0.9999998770654237</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1172,13 +1172,13 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.9999980926522749</v>
+        <v>0.9999998770654237</v>
       </c>
       <c r="C57">
-        <v>0.9990217695012675</v>
+        <v>0.9999998770654237</v>
       </c>
       <c r="D57">
-        <v>0.9998882535038188</v>
+        <v>0.9999998770654237</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1186,13 +1186,13 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>0.9999998770654237</v>
       </c>
       <c r="C58">
-        <v>0.9844341426952479</v>
+        <v>0.9384764433507407</v>
       </c>
       <c r="D58">
-        <v>0.9984416946768885</v>
+        <v>0.9938475336939554</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1200,13 +1200,13 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>0.9999998770654237</v>
       </c>
       <c r="C59">
-        <v>0.2499999995343387</v>
+        <v>0.9999998770654237</v>
       </c>
       <c r="D59">
-        <v>0.924999034358654</v>
+        <v>0.9999998770654237</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1214,13 +1214,13 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>0.9999998770654237</v>
       </c>
       <c r="C60">
-        <v>0.9999389657750157</v>
+        <v>0.9689940195826274</v>
       </c>
       <c r="D60">
-        <v>0.9999938958324435</v>
+        <v>0.9968958581132779</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1228,13 +1228,13 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>0.9999998770654237</v>
       </c>
       <c r="C61">
-        <v>0.7656249997962732</v>
+        <v>0.9999998770654237</v>
       </c>
       <c r="D61">
-        <v>0.9765617370409011</v>
+        <v>0.9999998770654237</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1242,13 +1242,13 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>0.9999998770654237</v>
       </c>
       <c r="C62">
-        <v>0.9999998807907138</v>
+        <v>0.9999998770654237</v>
       </c>
       <c r="D62">
-        <v>0.9999999880790714</v>
+        <v>0.9999998770654237</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1256,13 +1256,13 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>0.9999998770654237</v>
       </c>
       <c r="C63">
-        <v>0.2499999995343387</v>
+        <v>0.9999998696148436</v>
       </c>
       <c r="D63">
-        <v>0.9249511651228662</v>
+        <v>0.9999998755753076</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1270,13 +1270,13 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>0.9999998770654237</v>
       </c>
       <c r="C64">
-        <v>0.2499999995343387</v>
+        <v>0.9999998770654237</v>
       </c>
       <c r="D64">
-        <v>0.9249908447964031</v>
+        <v>0.9999998770654237</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1284,13 +1284,13 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>1</v>
+        <v>0.9999998770654237</v>
       </c>
       <c r="C65">
-        <v>0.7656249997962732</v>
+        <v>0.8789061346396956</v>
       </c>
       <c r="D65">
-        <v>0.9765136778150463</v>
+        <v>0.9878905028228508</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1298,13 +1298,13 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>0.9999998770654237</v>
       </c>
       <c r="C66">
-        <v>0.9990236759176701</v>
+        <v>0.9999994002283512</v>
       </c>
       <c r="D66">
-        <v>0.9999023646115347</v>
+        <v>0.9999998293817164</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1312,13 +1312,13 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>1</v>
+        <v>0.9999998770654237</v>
       </c>
       <c r="C67">
-        <v>0.9960975646936348</v>
+        <v>0.9999846183354926</v>
       </c>
       <c r="D67">
-        <v>0.9996096074577701</v>
+        <v>0.9999983511924306</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1326,13 +1326,13 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>0.9999998770654237</v>
       </c>
       <c r="C68">
-        <v>0.9844360351418118</v>
+        <v>0.9999998770654237</v>
       </c>
       <c r="D68">
-        <v>0.9984436035141812</v>
+        <v>0.9999998770654237</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1340,13 +1340,13 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>0.9999998770654237</v>
       </c>
       <c r="C69">
-        <v>0.9999999701976778</v>
+        <v>0.999996062372027</v>
       </c>
       <c r="D69">
-        <v>0.9999999970197677</v>
+        <v>0.999999495596084</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1354,13 +1354,13 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>1</v>
+        <v>0.9999998770654237</v>
       </c>
       <c r="C70">
-        <v>0.992202758781815</v>
+        <v>0.9999998770654237</v>
       </c>
       <c r="D70">
-        <v>0.99922008477088</v>
+        <v>0.9999998770654237</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1368,13 +1368,13 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>1</v>
+        <v>0.9999998770654237</v>
       </c>
       <c r="C71">
-        <v>0.9999694826546772</v>
+        <v>0.9999998770654237</v>
       </c>
       <c r="D71">
-        <v>0.9999969467753516</v>
+        <v>0.9999998770654237</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1382,13 +1382,13 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>1</v>
+        <v>0.9999998770654237</v>
       </c>
       <c r="C72">
-        <v>0.9999961853063688</v>
+        <v>0.9999998770654237</v>
       </c>
       <c r="D72">
-        <v>0.9999996125701724</v>
+        <v>0.9999998770654237</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1396,13 +1396,13 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>1</v>
+        <v>0.9999998770654237</v>
       </c>
       <c r="C73">
-        <v>0.8789062498908606</v>
+        <v>0.9999998770654237</v>
       </c>
       <c r="D73">
-        <v>0.9861390113705172</v>
+        <v>0.9999998770654237</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1410,13 +1410,13 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>1</v>
+        <v>0.9999998770654237</v>
       </c>
       <c r="C74">
-        <v>1</v>
+        <v>0.9999998770654237</v>
       </c>
       <c r="D74">
-        <v>1</v>
+        <v>0.9999998770654237</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1424,13 +1424,13 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>1</v>
+        <v>0.9999998770654237</v>
       </c>
       <c r="C75">
-        <v>0.9999980926522749</v>
+        <v>0.9960974419991651</v>
       </c>
       <c r="D75">
-        <v>0.9999998092652275</v>
+        <v>0.9996096335587978</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1438,13 +1438,13 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>1</v>
+        <v>0.9999998770654237</v>
       </c>
       <c r="C76">
-        <v>0.9997558742759338</v>
+        <v>0.9999998770654237</v>
       </c>
       <c r="D76">
-        <v>0.9999754920601844</v>
+        <v>0.9999998770654237</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1452,13 +1452,13 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>1</v>
+        <v>0.9999998770654237</v>
       </c>
       <c r="C77">
-        <v>0.9999998807907138</v>
+        <v>0.9999998770654237</v>
       </c>
       <c r="D77">
-        <v>0.9999999761581428</v>
+        <v>0.9999998770654237</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1466,13 +1466,13 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>1</v>
+        <v>0.9999998770654237</v>
       </c>
       <c r="C78">
-        <v>0.9844360351418118</v>
+        <v>0.9999998770654237</v>
       </c>
       <c r="D78">
-        <v>0.9983459588124906</v>
+        <v>0.9999998770654237</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1480,13 +1480,13 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>1</v>
+        <v>0.9999998770654237</v>
       </c>
       <c r="C79">
-        <v>0.9999389657750157</v>
+        <v>0.9999998770654237</v>
       </c>
       <c r="D79">
-        <v>0.9999938962049726</v>
+        <v>0.9999998770654237</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1494,13 +1494,13 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>1</v>
+        <v>0.9999998770654237</v>
       </c>
       <c r="C80">
-        <v>0.992202758781815</v>
+        <v>0.9999998770654237</v>
       </c>
       <c r="D80">
-        <v>0.9992202758781815</v>
+        <v>0.9999998770654237</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1508,13 +1508,13 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>1</v>
+        <v>0.9999998770654237</v>
       </c>
       <c r="C81">
-        <v>0.9999389657750157</v>
+        <v>0.9999998770654237</v>
       </c>
       <c r="D81">
-        <v>0.9999938965775016</v>
+        <v>0.9999998770654237</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1522,13 +1522,13 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>1</v>
+        <v>0.9999998770654237</v>
       </c>
       <c r="C82">
-        <v>0.9999389657750157</v>
+        <v>0.9999998770654237</v>
       </c>
       <c r="D82">
-        <v>0.9999938965775016</v>
+        <v>0.9999998770654237</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1536,13 +1536,13 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>1</v>
+        <v>0.9999998770654237</v>
       </c>
       <c r="C83">
-        <v>0.9960975646936348</v>
+        <v>0.9999998770654237</v>
       </c>
       <c r="D83">
-        <v>0.9996097438033769</v>
+        <v>0.9999998770654237</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1550,13 +1550,13 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>1</v>
+        <v>0.9999998770654237</v>
       </c>
       <c r="C84">
-        <v>1</v>
+        <v>0.9999998770654237</v>
       </c>
       <c r="D84">
-        <v>1</v>
+        <v>0.9999998770654237</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1564,13 +1564,13 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>1</v>
+        <v>0.9999998770654237</v>
       </c>
       <c r="C85">
-        <v>0.9998779334126766</v>
+        <v>0.9990235530431204</v>
       </c>
       <c r="D85">
-        <v>0.9999847177648788</v>
+        <v>0.9999022446631933</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1578,13 +1578,13 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>1</v>
+        <v>0.9999998770654237</v>
       </c>
       <c r="C86">
-        <v>0.999984741269131</v>
+        <v>0.9384764433507407</v>
       </c>
       <c r="D86">
-        <v>0.9999984741269131</v>
+        <v>0.9938475336939554</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1592,13 +1592,13 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>1</v>
+        <v>0.9999998770654237</v>
       </c>
       <c r="C87">
-        <v>0.8789062498908606</v>
+        <v>0.9999998770654237</v>
       </c>
       <c r="D87">
-        <v>0.9871040345067705</v>
+        <v>0.9999998770654237</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1606,13 +1606,13 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>1</v>
+        <v>0.9999998807907138</v>
       </c>
       <c r="C88">
-        <v>0.2499999995343387</v>
+        <v>0.9999998770654237</v>
       </c>
       <c r="D88">
-        <v>0.9249992370154352</v>
+        <v>0.9999998781830108</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1620,13 +1620,13 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>1</v>
+        <v>0.9999998807907138</v>
       </c>
       <c r="C89">
-        <v>0.9999389657750157</v>
+        <v>0.9999979734431024</v>
       </c>
       <c r="D89">
-        <v>0.9999938965775016</v>
+        <v>0.9999996893108947</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1634,13 +1634,13 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>1</v>
+        <v>0.9999998807907138</v>
       </c>
       <c r="C90">
-        <v>0.9844360351418118</v>
+        <v>0.9998778142106663</v>
       </c>
       <c r="D90">
-        <v>0.9984436035141812</v>
+        <v>0.9999876741327091</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1648,13 +1648,13 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>1</v>
+        <v>0.9999998807907138</v>
       </c>
       <c r="C91">
-        <v>0.7656249997962732</v>
+        <v>0.9999998807907138</v>
       </c>
       <c r="D91">
-        <v>0.9749999999898165</v>
+        <v>0.9999998807907138</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1662,13 +1662,13 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>1</v>
+        <v>0.9999998807907138</v>
       </c>
       <c r="C92">
-        <v>0.2499999995343387</v>
+        <v>0.9999998807907138</v>
       </c>
       <c r="D92">
-        <v>0.9249999999534338</v>
+        <v>0.9999998807907138</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1676,13 +1676,13 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>1</v>
+        <v>0.9999998807907138</v>
       </c>
       <c r="C93">
-        <v>0.9999999850988388</v>
+        <v>0.9999998807907138</v>
       </c>
       <c r="D93">
-        <v>0.9999999985098839</v>
+        <v>0.9999998807907138</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1690,13 +1690,13 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>1</v>
+        <v>0.9999998807907138</v>
       </c>
       <c r="C94">
-        <v>0.7656249997962732</v>
+        <v>0.9999998733401336</v>
       </c>
       <c r="D94">
-        <v>0.9765617370416286</v>
+        <v>0.9999998800456558</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1704,13 +1704,13 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>1</v>
+        <v>0.9999998807907138</v>
       </c>
       <c r="C95">
-        <v>0.9998779334126766</v>
+        <v>0.9998778142106663</v>
       </c>
       <c r="D95">
-        <v>0.9999877933412676</v>
+        <v>0.9999876264490017</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -1718,13 +1718,13 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>1</v>
+        <v>0.9999998807907138</v>
       </c>
       <c r="C96">
-        <v>0.878906138132155</v>
+        <v>0.9999998807907138</v>
       </c>
       <c r="D96">
-        <v>0.9757797010053757</v>
+        <v>0.9999998807907138</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -1732,13 +1732,13 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>1</v>
+        <v>0.9999998807907138</v>
       </c>
       <c r="C97">
-        <v>0.9980478286724992</v>
+        <v>0.9999998807907138</v>
       </c>
       <c r="D97">
-        <v>0.9997040987244846</v>
+        <v>0.9999998807907138</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1746,13 +1746,13 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>1</v>
+        <v>0.9999998807907138</v>
       </c>
       <c r="C98">
-        <v>0.9999998807907138</v>
+        <v>0.9689940232497098</v>
       </c>
       <c r="D98">
-        <v>0.9999999880790714</v>
+        <v>0.9968992950366135</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -1760,13 +1760,13 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>1</v>
+        <v>0.9999998807907138</v>
       </c>
       <c r="C99">
-        <v>1</v>
+        <v>0.9999846220607542</v>
       </c>
       <c r="D99">
-        <v>1</v>
+        <v>0.9999983549177178</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -1774,13 +1774,13 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>1</v>
+        <v>0.9999998807907138</v>
       </c>
       <c r="C100">
-        <v>0.9998779334126766</v>
+        <v>0.9999998807907138</v>
       </c>
       <c r="D100">
-        <v>0.9999877933412676</v>
+        <v>0.9999998807907138</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1788,13 +1788,13 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>1</v>
+        <v>0.9999998807907138</v>
       </c>
       <c r="C101">
-        <v>0.999984741269131</v>
+        <v>0.99999606609731</v>
       </c>
       <c r="D101">
-        <v>0.999998472636797</v>
+        <v>0.9999991178520331</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -1802,13 +1802,13 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>1</v>
+        <v>0.9999998807907138</v>
       </c>
       <c r="C102">
-        <v>0.7656249997962732</v>
+        <v>0.9999998211860734</v>
       </c>
       <c r="D102">
-        <v>0.9765614956429138</v>
+        <v>0.9999998748302497</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -1816,13 +1816,13 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>1</v>
+        <v>0.9999998807907138</v>
       </c>
       <c r="C103">
-        <v>0.7656249997962732</v>
+        <v>0.9999989271166807</v>
       </c>
       <c r="D103">
-        <v>0.9703609466293525</v>
+        <v>0.9999997854233105</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -1830,13 +1830,13 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>1</v>
+        <v>0.9999998807907138</v>
       </c>
       <c r="C104">
-        <v>0.9999980926522749</v>
+        <v>0.9999998807907138</v>
       </c>
       <c r="D104">
-        <v>0.9999994277956825</v>
+        <v>0.9999998807907138</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -1844,13 +1844,13 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>1</v>
+        <v>0.9999998807907138</v>
       </c>
       <c r="C105">
-        <v>0.562499999650754</v>
+        <v>0.9999998807907138</v>
       </c>
       <c r="D105">
-        <v>0.9562499932595528</v>
+        <v>0.9999998807907138</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -1858,13 +1858,13 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>1</v>
+        <v>0.9999998807907138</v>
       </c>
       <c r="C106">
-        <v>0.9980478286724992</v>
+        <v>0.9999998807907138</v>
       </c>
       <c r="D106">
-        <v>0.9994143482292207</v>
+        <v>0.9999998807907138</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -1872,13 +1872,13 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>1</v>
+        <v>0.9999998807907138</v>
       </c>
       <c r="C107">
-        <v>0.9995117783541901</v>
+        <v>0.9999998807907138</v>
       </c>
       <c r="D107">
-        <v>0.9999504148966928</v>
+        <v>0.9999998807907138</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -1886,13 +1886,13 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>1</v>
+        <v>0.9999998807907138</v>
       </c>
       <c r="C108">
-        <v>0.9980478286724992</v>
+        <v>0.9999998807907138</v>
       </c>
       <c r="D108">
-        <v>0.9998047828672499</v>
+        <v>0.9999998807907138</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -1900,13 +1900,13 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>1</v>
+        <v>0.9999998807907138</v>
       </c>
       <c r="C109">
-        <v>0.9384756385718438</v>
+        <v>0.9999998807907138</v>
       </c>
       <c r="D109">
-        <v>0.9907468825494107</v>
+        <v>0.9999998807907138</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -1914,13 +1914,13 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>1</v>
+        <v>0.9999998807907138</v>
       </c>
       <c r="C110">
-        <v>0.9999961853063688</v>
+        <v>0.9999998211860734</v>
       </c>
       <c r="D110">
-        <v>0.9999996125701724</v>
+        <v>0.9999998748302497</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -1928,13 +1928,13 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>1</v>
+        <v>0.9999998807907138</v>
       </c>
       <c r="C111">
-        <v>0.562499999650754</v>
+        <v>0.9999998807907138</v>
       </c>
       <c r="D111">
-        <v>0.95009763236758</v>
+        <v>0.9999998807907138</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -1942,13 +1942,13 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>1</v>
+        <v>0.9999998807907138</v>
       </c>
       <c r="C112">
-        <v>0.7656249997962732</v>
+        <v>0.9999998807907138</v>
       </c>
       <c r="D112">
-        <v>0.9765624999796273</v>
+        <v>0.9999998807907138</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -1956,13 +1956,13 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>1</v>
+        <v>0.9999998807907138</v>
       </c>
       <c r="C113">
-        <v>0.7656249997962732</v>
+        <v>0.9999998807907138</v>
       </c>
       <c r="D113">
-        <v>0.9765624999796273</v>
+        <v>0.9999998807907138</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -1970,13 +1970,13 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>1</v>
+        <v>0.9999998807907138</v>
       </c>
       <c r="C114">
-        <v>0.9999999962747097</v>
+        <v>0.9999998807907138</v>
       </c>
       <c r="D114">
-        <v>0.999999999627471</v>
+        <v>0.9999998807907138</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -1987,10 +1987,10 @@
         <v>1</v>
       </c>
       <c r="C115">
-        <v>0.9999999925494194</v>
+        <v>0.5624999102437903</v>
       </c>
       <c r="D115">
-        <v>0.999999999254942</v>
+        <v>0.9441405213910942</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2001,10 +2001,10 @@
         <v>1</v>
       </c>
       <c r="C116">
-        <v>0.9999999403953561</v>
+        <v>0.9999998807907138</v>
       </c>
       <c r="D116">
-        <v>0.9999999940395355</v>
+        <v>0.9999998927116425</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2015,10 +2015,10 @@
         <v>1</v>
       </c>
       <c r="C117">
-        <v>0.8789062498908606</v>
+        <v>0.9999998807907138</v>
       </c>
       <c r="D117">
-        <v>0.9878906249890861</v>
+        <v>0.9999999165534996</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2029,10 +2029,10 @@
         <v>1</v>
       </c>
       <c r="C118">
-        <v>0.9689941405963509</v>
+        <v>0.9999998807907138</v>
       </c>
       <c r="D118">
-        <v>0.9968917847640497</v>
+        <v>0.9999999761581428</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2043,10 +2043,10 @@
         <v>1</v>
       </c>
       <c r="C119">
-        <v>0.9999980926522749</v>
+        <v>1</v>
       </c>
       <c r="D119">
-        <v>0.9999997854233703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2057,10 +2057,10 @@
         <v>1</v>
       </c>
       <c r="C120">
-        <v>0.999984741269131</v>
+        <v>0.9689940232497098</v>
       </c>
       <c r="D120">
-        <v>0.9999982833921406</v>
+        <v>0.9937988163846061</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2071,10 +2071,10 @@
         <v>1</v>
       </c>
       <c r="C121">
-        <v>0.9980459231874192</v>
+        <v>1</v>
       </c>
       <c r="D121">
-        <v>0.9996093751859918</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2085,10 +2085,10 @@
         <v>1</v>
       </c>
       <c r="C122">
-        <v>0.562499999650754</v>
+        <v>0.9999999962747097</v>
       </c>
       <c r="D122">
-        <v>0.9124999515013826</v>
+        <v>0.999999999627471</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2099,10 +2099,10 @@
         <v>1</v>
       </c>
       <c r="C123">
-        <v>0.7656249997962732</v>
+        <v>1</v>
       </c>
       <c r="D123">
-        <v>0.9750059120139779</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2113,10 +2113,10 @@
         <v>1</v>
       </c>
       <c r="C124">
-        <v>0.9998779334126766</v>
+        <v>0.9999998807907138</v>
       </c>
       <c r="D124">
-        <v>0.9999874118719045</v>
+        <v>0.9999999880790714</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2127,10 +2127,10 @@
         <v>1</v>
       </c>
       <c r="C125">
-        <v>0.999984741269131</v>
+        <v>0.9999999925494194</v>
       </c>
       <c r="D125">
-        <v>0.9999984741269131</v>
+        <v>0.9999999985098839</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2155,10 +2155,10 @@
         <v>1</v>
       </c>
       <c r="C127">
-        <v>0.7656249997962732</v>
+        <v>0.9999999962747097</v>
       </c>
       <c r="D127">
-        <v>0.8941406249075954</v>
+        <v>0.999999999627471</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2169,10 +2169,10 @@
         <v>1</v>
       </c>
       <c r="C128">
-        <v>0.2499999995343387</v>
+        <v>1</v>
       </c>
       <c r="D128">
-        <v>0.9249999999534338</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2183,10 +2183,10 @@
         <v>1</v>
       </c>
       <c r="C129">
-        <v>0.9844360351418118</v>
+        <v>0.9990236759176701</v>
       </c>
       <c r="D129">
-        <v>0.9984191909417746</v>
+        <v>0.999902367591767</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2197,10 +2197,10 @@
         <v>1</v>
       </c>
       <c r="C130">
-        <v>0.8789062498908606</v>
+        <v>1</v>
       </c>
       <c r="D130">
-        <v>0.9878890931555346</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2211,10 +2211,10 @@
         <v>1</v>
       </c>
       <c r="C131">
-        <v>0.9689941405963509</v>
+        <v>1</v>
       </c>
       <c r="D131">
-        <v>0.9968994140596351</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2225,10 +2225,10 @@
         <v>1</v>
       </c>
       <c r="C132">
-        <v>0.2499999995343387</v>
+        <v>1</v>
       </c>
       <c r="D132">
-        <v>0.9007827758112427</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2239,10 +2239,10 @@
         <v>1</v>
       </c>
       <c r="C133">
-        <v>0.992202758781815</v>
+        <v>0.8789062498908606</v>
       </c>
       <c r="D133">
-        <v>0.998633861541205</v>
+        <v>0.987110137927813</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2253,10 +2253,10 @@
         <v>1</v>
       </c>
       <c r="C134">
-        <v>0.9995117783541901</v>
+        <v>0.9999995231628982</v>
       </c>
       <c r="D134">
-        <v>0.9999477446315236</v>
+        <v>0.9999999523162899</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2267,10 +2267,10 @@
         <v>1</v>
       </c>
       <c r="C135">
-        <v>0.9999995231628982</v>
+        <v>1</v>
       </c>
       <c r="D135">
-        <v>0.9999999519437608</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2281,10 +2281,10 @@
         <v>1</v>
       </c>
       <c r="C136">
-        <v>0.9997558742759338</v>
+        <v>1</v>
       </c>
       <c r="D136">
-        <v>0.9999755874275934</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2309,10 +2309,10 @@
         <v>1</v>
       </c>
       <c r="C138">
-        <v>0.8789062498908606</v>
+        <v>1</v>
       </c>
       <c r="D138">
-        <v>0.9878890991159992</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2323,10 +2323,10 @@
         <v>1</v>
       </c>
       <c r="C139">
-        <v>0.9999999850988388</v>
+        <v>1</v>
       </c>
       <c r="D139">
-        <v>0.9999999985098839</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2337,10 +2337,10 @@
         <v>1</v>
       </c>
       <c r="C140">
-        <v>1</v>
+        <v>0.9960975646936348</v>
       </c>
       <c r="D140">
-        <v>1</v>
+        <v>0.9996097564693635</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2351,10 +2351,10 @@
         <v>1</v>
       </c>
       <c r="C141">
-        <v>0.9844360351418118</v>
+        <v>1</v>
       </c>
       <c r="D141">
-        <v>0.9984435796723247</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -2365,10 +2365,10 @@
         <v>1</v>
       </c>
       <c r="C142">
-        <v>0.9384765624436113</v>
+        <v>1</v>
       </c>
       <c r="D142">
-        <v>0.9938457489017292</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -2379,10 +2379,10 @@
         <v>1</v>
       </c>
       <c r="C143">
-        <v>0.9999999850988388</v>
+        <v>0.5624999884748833</v>
       </c>
       <c r="D143">
-        <v>0.9999999970197677</v>
+        <v>0.9562499496736621</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -2393,10 +2393,10 @@
         <v>1</v>
       </c>
       <c r="C144">
-        <v>0.9384765624436113</v>
+        <v>1</v>
       </c>
       <c r="D144">
-        <v>0.9873048782232221</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2407,10 +2407,10 @@
         <v>1</v>
       </c>
       <c r="C145">
-        <v>0.9999990463259101</v>
+        <v>1</v>
       </c>
       <c r="D145">
-        <v>0.999999713897773</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -2421,10 +2421,10 @@
         <v>1</v>
       </c>
       <c r="C146">
-        <v>0.9995117783541901</v>
+        <v>1</v>
       </c>
       <c r="D146">
-        <v>0.999951177835419</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -2435,10 +2435,10 @@
         <v>1</v>
       </c>
       <c r="C147">
-        <v>0.9384765624436113</v>
+        <v>1</v>
       </c>
       <c r="D147">
-        <v>0.9938476562443611</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -2449,10 +2449,10 @@
         <v>1</v>
       </c>
       <c r="C148">
-        <v>0.562499999650754</v>
+        <v>1</v>
       </c>
       <c r="D148">
-        <v>0.9562499999650754</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -2477,10 +2477,10 @@
         <v>1</v>
       </c>
       <c r="C150">
-        <v>0.562499999650754</v>
+        <v>1</v>
       </c>
       <c r="D150">
-        <v>0.9562496184957123</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -2491,10 +2491,10 @@
         <v>1</v>
       </c>
       <c r="C151">
-        <v>0.9980478286724992</v>
+        <v>0.9960975646936348</v>
       </c>
       <c r="D151">
-        <v>0.9998032063302207</v>
+        <v>0.9996082305962766</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -2505,10 +2505,10 @@
         <v>1</v>
       </c>
       <c r="C152">
-        <v>0.562499999650754</v>
+        <v>0.9998779334126766</v>
       </c>
       <c r="D152">
-        <v>0.956249994004611</v>
+        <v>0.999963380023803</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -2519,10 +2519,10 @@
         <v>1</v>
       </c>
       <c r="C153">
-        <v>0.992202758781815</v>
+        <v>0.9999999925494194</v>
       </c>
       <c r="D153">
-        <v>0.9992202725254202</v>
+        <v>0.999999999254942</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -2533,10 +2533,10 @@
         <v>1</v>
       </c>
       <c r="C154">
-        <v>0.9999998807907138</v>
+        <v>1</v>
       </c>
       <c r="D154">
-        <v>0.999999982118607</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -2547,10 +2547,10 @@
         <v>1</v>
       </c>
       <c r="C155">
-        <v>0.9999999701976778</v>
+        <v>0.992202758781815</v>
       </c>
       <c r="D155">
-        <v>0.9999999970197677</v>
+        <v>0.9992202758781815</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -2561,10 +2561,10 @@
         <v>1</v>
       </c>
       <c r="C156">
-        <v>0.9999694826546772</v>
+        <v>1</v>
       </c>
       <c r="D156">
-        <v>0.999996185327469</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -2575,10 +2575,10 @@
         <v>1</v>
       </c>
       <c r="C157">
-        <v>0.9997558593765917</v>
+        <v>1</v>
       </c>
       <c r="D157">
-        <v>0.9999206543902972</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -2589,10 +2589,10 @@
         <v>1</v>
       </c>
       <c r="C158">
-        <v>0.562499999650754</v>
+        <v>0.9999980926522749</v>
       </c>
       <c r="D158">
-        <v>0.9562469482305431</v>
+        <v>0.9999998092652275</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -2603,10 +2603,10 @@
         <v>1</v>
       </c>
       <c r="C159">
-        <v>0.2499999995343387</v>
+        <v>1</v>
       </c>
       <c r="D159">
-        <v>0.9121109008207015</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -2617,10 +2617,10 @@
         <v>1</v>
       </c>
       <c r="C160">
-        <v>0.8789062498908606</v>
+        <v>1</v>
       </c>
       <c r="D160">
-        <v>0.9876950263869728</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -2631,10 +2631,10 @@
         <v>1</v>
       </c>
       <c r="C161">
-        <v>0.2499999995343387</v>
+        <v>1</v>
       </c>
       <c r="D161">
-        <v>0.8812499999185093</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -2645,10 +2645,10 @@
         <v>1</v>
       </c>
       <c r="C162">
-        <v>0.9999990463259101</v>
+        <v>0.9999999850988388</v>
       </c>
       <c r="D162">
-        <v>0.9999999046325911</v>
+        <v>0.9999999985098839</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -2659,10 +2659,10 @@
         <v>1</v>
       </c>
       <c r="C163">
-        <v>0.9999389657750157</v>
+        <v>1</v>
       </c>
       <c r="D163">
-        <v>0.9999938965775016</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -2673,10 +2673,10 @@
         <v>1</v>
       </c>
       <c r="C164">
-        <v>0.8789062498908606</v>
+        <v>0.9990236759176701</v>
       </c>
       <c r="D164">
-        <v>0.9878902315986238</v>
+        <v>0.999902367591767</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -2687,10 +2687,10 @@
         <v>1</v>
       </c>
       <c r="C165">
-        <v>0.8789062498908606</v>
+        <v>1</v>
       </c>
       <c r="D165">
-        <v>0.9832305904325551</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -2701,10 +2701,10 @@
         <v>1</v>
       </c>
       <c r="C166">
-        <v>0.562499999650754</v>
+        <v>1</v>
       </c>
       <c r="D166">
-        <v>0.9562499999650754</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -2718,7 +2718,7 @@
         <v>0.9998779334126766</v>
       </c>
       <c r="D167">
-        <v>0.9999877903610355</v>
+        <v>0.9999877933412676</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -2729,10 +2729,10 @@
         <v>1</v>
       </c>
       <c r="C168">
-        <v>0.7656249997962732</v>
+        <v>1</v>
       </c>
       <c r="D168">
-        <v>0.9765563950670128</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -2743,10 +2743,10 @@
         <v>1</v>
       </c>
       <c r="C169">
-        <v>0.9689941405963509</v>
+        <v>1</v>
       </c>
       <c r="D169">
-        <v>0.9968963142688636</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -2757,10 +2757,10 @@
         <v>1</v>
       </c>
       <c r="C170">
-        <v>0.7656249997962732</v>
+        <v>0.9384765624436113</v>
       </c>
       <c r="D170">
-        <v>0.9734130903845652</v>
+        <v>0.9876953124887222</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -2771,10 +2771,10 @@
         <v>1</v>
       </c>
       <c r="C171">
-        <v>0.9960975498215775</v>
+        <v>1</v>
       </c>
       <c r="D171">
-        <v>0.9996096119310274</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -2785,10 +2785,10 @@
         <v>1</v>
       </c>
       <c r="C172">
-        <v>0.9999923706200136</v>
+        <v>1</v>
       </c>
       <c r="D172">
-        <v>0.9999991416945925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -2799,10 +2799,10 @@
         <v>1</v>
       </c>
       <c r="C173">
-        <v>0.2499999995343387</v>
+        <v>1</v>
       </c>
       <c r="D173">
-        <v>0.9249999999534338</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -2813,10 +2813,10 @@
         <v>1</v>
       </c>
       <c r="C174">
-        <v>0.9999999962747097</v>
+        <v>1</v>
       </c>
       <c r="D174">
-        <v>0.999999999627471</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -2827,10 +2827,10 @@
         <v>1</v>
       </c>
       <c r="C175">
-        <v>0.9689941405963509</v>
+        <v>0.9999997615814349</v>
       </c>
       <c r="D175">
-        <v>0.9968994051189384</v>
+        <v>0.9999999754130855</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -2841,10 +2841,10 @@
         <v>1</v>
       </c>
       <c r="C176">
-        <v>0.9999923706200136</v>
+        <v>0.9997558742759338</v>
       </c>
       <c r="D176">
-        <v>0.9999992355718852</v>
+        <v>0.9999755874275934</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -2855,10 +2855,10 @@
         <v>1</v>
       </c>
       <c r="C177">
-        <v>0.9999694826546772</v>
+        <v>0.7656249997962732</v>
       </c>
       <c r="D177">
-        <v>0.9999969452852355</v>
+        <v>0.9761722080202226</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -2869,10 +2869,10 @@
         <v>1</v>
       </c>
       <c r="C178">
-        <v>0.9999923706200136</v>
+        <v>0.9999999403953561</v>
       </c>
       <c r="D178">
-        <v>0.9999992311015369</v>
+        <v>0.9999999940395355</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -2897,10 +2897,10 @@
         <v>1</v>
       </c>
       <c r="C180">
-        <v>1</v>
+        <v>0.9995117783541901</v>
       </c>
       <c r="D180">
-        <v>1</v>
+        <v>0.999951177835419</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -2911,10 +2911,10 @@
         <v>1</v>
       </c>
       <c r="C181">
-        <v>0.7656249997962732</v>
+        <v>1</v>
       </c>
       <c r="D181">
-        <v>0.97036046979349</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -2925,10 +2925,10 @@
         <v>1</v>
       </c>
       <c r="C182">
-        <v>0.9999997615814349</v>
+        <v>1</v>
       </c>
       <c r="D182">
-        <v>0.9999999284744305</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -2939,10 +2939,10 @@
         <v>1</v>
       </c>
       <c r="C183">
-        <v>0.8789044617524253</v>
+        <v>1</v>
       </c>
       <c r="D183">
-        <v>0.9877802135315387</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -2953,10 +2953,10 @@
         <v>1</v>
       </c>
       <c r="C184">
-        <v>0.562498569140188</v>
+        <v>1</v>
       </c>
       <c r="D184">
-        <v>0.8669978379141992</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -2967,10 +2967,10 @@
         <v>1</v>
       </c>
       <c r="C185">
-        <v>0.9980475904867647</v>
+        <v>1</v>
       </c>
       <c r="D185">
-        <v>0.9998028278641881</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -2981,10 +2981,10 @@
         <v>1</v>
       </c>
       <c r="C186">
-        <v>0.9999998807907138</v>
+        <v>1</v>
       </c>
       <c r="D186">
-        <v>0.9999999806284908</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -2995,10 +2995,10 @@
         <v>1</v>
       </c>
       <c r="C187">
-        <v>0.999999757856145</v>
+        <v>1</v>
       </c>
       <c r="D187">
-        <v>0.9999999459832936</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3009,10 +3009,10 @@
         <v>1</v>
       </c>
       <c r="C188">
-        <v>1</v>
+        <v>0.9999999701976778</v>
       </c>
       <c r="D188">
-        <v>1</v>
+        <v>0.9999999970197677</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3023,10 +3023,10 @@
         <v>1</v>
       </c>
       <c r="C189">
-        <v>0.8788990973480333</v>
+        <v>0.562499999650754</v>
       </c>
       <c r="D189">
-        <v>0.9755850314889465</v>
+        <v>0.9562499984749593</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3037,10 +3037,10 @@
         <v>1</v>
       </c>
       <c r="C190">
-        <v>0.9990236759176701</v>
+        <v>0.9844360351418118</v>
       </c>
       <c r="D190">
-        <v>0.9999023199080568</v>
+        <v>0.9984436035141812</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3051,10 +3051,10 @@
         <v>1</v>
       </c>
       <c r="C191">
-        <v>0.9995117783541901</v>
+        <v>1</v>
       </c>
       <c r="D191">
-        <v>0.9999008297977511</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3065,10 +3065,10 @@
         <v>1</v>
       </c>
       <c r="C192">
-        <v>0.9844360351418118</v>
+        <v>0.9999694826546772</v>
       </c>
       <c r="D192">
-        <v>0.9984436035141812</v>
+        <v>0.9999969482654677</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3079,10 +3079,10 @@
         <v>1</v>
       </c>
       <c r="C193">
-        <v>0.9960975646936348</v>
+        <v>0.9999999403953561</v>
       </c>
       <c r="D193">
-        <v>0.9996096611019546</v>
+        <v>0.9999999940395355</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3093,10 +3093,10 @@
         <v>1</v>
       </c>
       <c r="C194">
-        <v>0.9995117783541901</v>
+        <v>0.562499999650754</v>
       </c>
       <c r="D194">
-        <v>0.999951177835419</v>
+        <v>0.9562499872990887</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3107,10 +3107,10 @@
         <v>1</v>
       </c>
       <c r="C195">
-        <v>0.9999694826546772</v>
+        <v>0.9999999925494194</v>
       </c>
       <c r="D195">
-        <v>0.9999969482654677</v>
+        <v>0.999999999254942</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3121,10 +3121,10 @@
         <v>1</v>
       </c>
       <c r="C196">
-        <v>0.5393066402616569</v>
+        <v>1</v>
       </c>
       <c r="D196">
-        <v>0.9100830315830081</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3135,10 +3135,10 @@
         <v>1</v>
       </c>
       <c r="C197">
-        <v>0.9997539671610394</v>
+        <v>0.9999923706200136</v>
       </c>
       <c r="D197">
-        <v>0.9998777464264774</v>
+        <v>0.9999984741240027</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -3149,10 +3149,10 @@
         <v>1</v>
       </c>
       <c r="C198">
-        <v>0.9997558742759338</v>
+        <v>0.9999961853063688</v>
       </c>
       <c r="D198">
-        <v>0.9999755874275934</v>
+        <v>0.9999996185306369</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -3163,10 +3163,10 @@
         <v>1</v>
       </c>
       <c r="C199">
-        <v>0.9844360351418118</v>
+        <v>0.2499999995343387</v>
       </c>
       <c r="D199">
-        <v>0.9968867301915904</v>
+        <v>0.9249999999534338</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -3177,10 +3177,10 @@
         <v>1</v>
       </c>
       <c r="C200">
-        <v>0.8789062498908606</v>
+        <v>1</v>
       </c>
       <c r="D200">
-        <v>0.9878906249890861</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -3191,10 +3191,10 @@
         <v>1</v>
       </c>
       <c r="C201">
-        <v>0.9999923706200136</v>
+        <v>0.9999389657750157</v>
       </c>
       <c r="D201">
-        <v>0.9999992370620013</v>
+        <v>0.999993705097671</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -3205,10 +3205,10 @@
         <v>1</v>
       </c>
       <c r="C202">
-        <v>0.9999961853063688</v>
+        <v>1</v>
       </c>
       <c r="D202">
-        <v>0.9999996148053466</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
